--- a/y_inflation.xlsx
+++ b/y_inflation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="18260" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="8060" yWindow="460" windowWidth="18260" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="inf1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>S &amp; W</t>
   </si>
@@ -159,13 +159,19 @@
   </si>
   <si>
     <t>Lasso 1, Y=Inflation, X: Combination of Lasso 1 and 2</t>
+  </si>
+  <si>
+    <t>Stock and Watson (Inflation)</t>
+  </si>
+  <si>
+    <t>14th Nov, 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +183,21 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -206,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -365,11 +386,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -391,10 +421,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H82"/>
+  <dimension ref="A2:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,467 +722,453 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E6" s="24" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.295711</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.30499799999999999</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.31493900000000002</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.136461</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.13264699999999999</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6.8751000000000007E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.0428999999999997E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.111259</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>2.1902000000000001E-2</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+        <v>0.295711</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.30499799999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.31493900000000002</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>8.0979999999999993E-3</v>
+        <v>0.136461</v>
       </c>
       <c r="C8" s="2">
-        <v>7.4609999999999998E-3</v>
-      </c>
-      <c r="D8" s="17">
-        <v>4.2400000000000001E-4</v>
-      </c>
+        <v>0.13264699999999999</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="9"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>4.0085000000000003E-2</v>
-      </c>
-      <c r="C9" s="16">
-        <v>4.3868999999999998E-2</v>
-      </c>
-      <c r="D9" s="8"/>
+        <v>6.8751000000000007E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.0428999999999997E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.111259</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>6.6756999999999997E-2</v>
-      </c>
-      <c r="C10" s="16">
-        <v>6.5454999999999999E-2</v>
-      </c>
-      <c r="D10" s="20"/>
+        <v>2.1902000000000001E-2</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>9.0760000000000007E-3</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1.1376000000000001E-2</v>
-      </c>
-      <c r="D11" s="20"/>
+        <v>8.0979999999999993E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7.4609999999999998E-3</v>
+      </c>
+      <c r="D11" s="17">
+        <v>4.2400000000000001E-4</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>2.5484E-2</v>
+        <v>4.0085000000000003E-2</v>
       </c>
       <c r="C12" s="16">
-        <v>2.4028000000000001E-2</v>
-      </c>
-      <c r="D12" s="20"/>
+        <v>4.3868999999999998E-2</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="9"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>3.3100000000000002E-4</v>
+        <v>6.6756999999999997E-2</v>
       </c>
       <c r="C13" s="16">
-        <v>1.1479999999999999E-3</v>
-      </c>
-      <c r="D13" s="18"/>
+        <v>6.5454999999999999E-2</v>
+      </c>
+      <c r="D13" s="20"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9.0760000000000007E-3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1.1376000000000001E-2</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.5484E-2</v>
+      </c>
+      <c r="C15" s="16">
+        <v>2.4028000000000001E-2</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.3100000000000002E-4</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1.1479999999999999E-3</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B17" s="8">
         <v>1.9598000000000001E-2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C17" s="8">
         <v>3.7273000000000001E-2</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D17" s="18">
         <v>2.9732000000000001E-2</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="E17" s="4"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="6">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="6">
         <v>7.0740000000000004E-3</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="6">
-        <v>7.1150000000000005E-2</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7">
-        <v>1.1129E-2</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="6">
-        <v>4.1425999999999998E-2</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="6">
-        <v>3.2044000000000003E-2</v>
+        <v>7.1150000000000005E-2</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="6">
-        <v>3.6340999999999998E-2</v>
+      <c r="D20" s="7">
+        <v>1.1129E-2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="6">
+        <v>4.1425999999999998E-2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="6">
+        <v>3.2044000000000003E-2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="6">
+        <v>3.6340999999999998E-2</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="6">
         <v>1.341E-3</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="7">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7">
         <v>1.4603E-2</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B39" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D39" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E39" s="24" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="4">
-        <v>7.2870000000000001E-3</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1.3002E-2</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.45542100000000002</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.42744100000000002</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.26186300000000001</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4">
-        <v>3.7731000000000001E-2</v>
-      </c>
-      <c r="C39" s="4">
-        <v>4.0441999999999999E-2</v>
-      </c>
-      <c r="D39" s="4">
-        <v>5.2795000000000002E-2</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="4">
+        <v>7.2870000000000001E-3</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.3002E-2</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.45542100000000002</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.42744100000000002</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.26186300000000001</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4">
+        <v>3.7731000000000001E-2</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4.0441999999999999E-2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5.2795000000000002E-2</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B43" s="8">
         <v>0.192828</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C43" s="4">
         <v>0.16044600000000001</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D43" s="8">
         <v>1.7793E-2</v>
       </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="19">
-        <v>8.201E-3</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="4">
-        <v>6.3452999999999996E-2</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="15">
-        <v>0.15557799999999999</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="7">
-        <v>2.6605E-2</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="19">
+        <v>8.201E-3</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="7">
-        <v>2.7626000000000001E-2</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>29</v>
+      <c r="C45" s="4">
+        <v>6.3452999999999996E-2</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="7">
-        <v>9.8403000000000004E-2</v>
+      <c r="C46" s="11"/>
+      <c r="D46" s="15">
+        <v>0.15557799999999999</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>25</v>
@@ -1153,259 +1176,259 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
       <c r="D47" s="7">
-        <v>4.3847999999999998E-2</v>
+        <v>2.6605E-2</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="7">
+        <v>2.7626000000000001E-2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="7">
+        <v>9.8403000000000004E-2</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="7">
+        <v>4.3847999999999998E-2</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="7">
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="7">
         <v>6.1549E-2</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B70" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C70" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D70" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E70" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="4">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="C68" s="4">
-        <v>3.7578E-2</v>
-      </c>
-      <c r="D68" s="4">
-        <v>5.3557E-2</v>
-      </c>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="1">
-        <v>3.7351000000000002E-2</v>
-      </c>
-      <c r="C69" s="2">
-        <v>3.7079000000000001E-2</v>
-      </c>
-      <c r="D69" s="17">
-        <v>4.3605999999999999E-2</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="4">
-        <v>4.0794999999999998E-2</v>
-      </c>
-      <c r="C70" s="4">
-        <v>4.1891999999999999E-2</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0.30529600000000001</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.29982799999999998</v>
-      </c>
-      <c r="D71" s="17">
-        <v>0.26959100000000003</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B71" s="4">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="C71" s="4">
+        <v>3.7578E-2</v>
+      </c>
+      <c r="D71" s="4">
+        <v>5.3557E-2</v>
+      </c>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B72" s="1">
-        <v>6.4499999999999996E-4</v>
+        <v>3.7351000000000002E-2</v>
       </c>
       <c r="C72" s="2">
-        <v>1.1460000000000001E-3</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="7" t="s">
-        <v>29</v>
+        <v>3.7079000000000001E-2</v>
+      </c>
+      <c r="D72" s="17">
+        <v>4.3605999999999999E-2</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="1">
-        <v>2.3921999999999999E-2</v>
-      </c>
-      <c r="C73" s="2">
-        <v>2.3751000000000001E-2</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B73" s="4">
+        <v>4.0794999999999998E-2</v>
+      </c>
+      <c r="C73" s="4">
+        <v>4.1891999999999999E-2</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="1">
-        <v>0.17888399999999999</v>
+        <v>0.30529600000000001</v>
       </c>
       <c r="C74" s="2">
-        <v>0.17888699999999999</v>
-      </c>
-      <c r="D74" s="18">
-        <v>0.13079499999999999</v>
+        <v>0.29982799999999998</v>
+      </c>
+      <c r="D74" s="17">
+        <v>0.26959100000000003</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B75" s="1">
-        <v>8.2783999999999996E-2</v>
+        <v>6.4499999999999996E-4</v>
       </c>
       <c r="C75" s="2">
-        <v>8.0839999999999995E-2</v>
-      </c>
-      <c r="D75" s="17">
-        <v>5.7194000000000002E-2</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>26</v>
+        <v>1.1460000000000001E-3</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2.3921999999999999E-2</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2.3751000000000001E-2</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.17888399999999999</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.17888699999999999</v>
+      </c>
+      <c r="D77" s="18">
+        <v>0.13079499999999999</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1">
+        <v>8.2783999999999996E-2</v>
+      </c>
+      <c r="C78" s="2">
+        <v>8.0839999999999995E-2</v>
+      </c>
+      <c r="D78" s="17">
+        <v>5.7194000000000002E-2</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B79" s="1">
         <v>2.5850000000000001E-3</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C79" s="8">
         <v>3.127E-3</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D79" s="4">
         <v>4.5170000000000002E-3</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="7">
-        <v>3.5671000000000001E-2</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="7">
-        <v>7.9020000000000007E-2</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="7">
-        <v>3.7729999999999999E-3</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="7">
-        <v>2.7022999999999998E-2</v>
+        <v>3.5671000000000001E-2</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="13"/>
       <c r="D81" s="7">
-        <v>1.5987999999999999E-2</v>
+        <v>7.9020000000000007E-2</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>25</v>
@@ -1413,22 +1436,63 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="7">
+        <v>3.7729999999999999E-3</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="7">
+        <v>2.7022999999999998E-2</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="7">
+        <v>1.5987999999999999E-2</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="17">
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="3">
         <v>1.08E-4</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A66:E66"/>
+  <mergeCells count="5">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
